--- a/Trying to normalise data.xlsx
+++ b/Trying to normalise data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samra\Documents\My Documents\Uni\4th Year\Honours Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7ABEB2-374C-413C-8174-8CB33D5E4F9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F1FBBF-B694-46B0-BDFF-6ABF36243C1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1668" windowWidth="12960" windowHeight="10692" xr2:uid="{018386F5-A2AF-4D41-AF45-A32123085328}"/>
+    <workbookView xWindow="11280" yWindow="5844" windowWidth="12960" windowHeight="10692" xr2:uid="{018386F5-A2AF-4D41-AF45-A32123085328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
   <si>
     <t>Range</t>
   </si>
@@ -160,13 +160,58 @@
   </si>
   <si>
     <t>Most normally distributed so far</t>
+  </si>
+  <si>
+    <t>log(arcsin(x))</t>
+  </si>
+  <si>
+    <t>slight right-skew</t>
+  </si>
+  <si>
+    <t>Not great, deviates at bottom big curve at top</t>
+  </si>
+  <si>
+    <t>ln(sqrt(x))</t>
+  </si>
+  <si>
+    <t>1.068 e^-12</t>
+  </si>
+  <si>
+    <t>cuberoot(arcsin)</t>
+  </si>
+  <si>
+    <t>left skew</t>
+  </si>
+  <si>
+    <t>S-shaped (less so at top)</t>
+  </si>
+  <si>
+    <t>ln(x^2)</t>
+  </si>
+  <si>
+    <t>sqrt(ln())</t>
+  </si>
+  <si>
+    <t>6.249 e^-10</t>
+  </si>
+  <si>
+    <t>Pretty good, lump on left</t>
+  </si>
+  <si>
+    <t>Pretty straight, but with a tail at the bottom</t>
+  </si>
+  <si>
+    <t>cbrt(ln())</t>
+  </si>
+  <si>
+    <t>Pretty straight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +245,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -227,13 +279,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A3DE6A-DB5D-4BFB-91F4-96643013F254}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,6 +644,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -815,19 +870,19 @@
       <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="6">
         <v>0.97814999999999996</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -844,19 +899,19 @@
       <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="6">
         <v>0.97814999999999996</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -983,6 +1038,108 @@
       </c>
       <c r="J19" s="1"/>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.97626000000000002</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.97814999999999996</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.92232999999999998</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.97814999999999996</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.98341000000000001</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.97814999999999996</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Trying to normalise data.xlsx
+++ b/Trying to normalise data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samra\Documents\My Documents\Uni\4th Year\Honours Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F1FBBF-B694-46B0-BDFF-6ABF36243C1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE5BA60-BBF1-44E5-A1BC-22C7FCBB6E54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11280" yWindow="5844" windowWidth="12960" windowHeight="10692" xr2:uid="{018386F5-A2AF-4D41-AF45-A32123085328}"/>
   </bookViews>
@@ -604,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A3DE6A-DB5D-4BFB-91F4-96643013F254}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
